--- a/biology/Zoologie/Crevette_mouchetée/Crevette_mouchetée.xlsx
+++ b/biology/Zoologie/Crevette_mouchetée/Crevette_mouchetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crevette_mouchet%C3%A9e</t>
+          <t>Crevette_mouchetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metapenaeus monoceros
 La Crevette mouchetée (Metapenaeus monoceros) est une espèce de crustacé décapode. C'est une crevette de la famille des Penaeidae.
-L'UICN l'a placée — avec M. stebbingi — dans sa « liste noire des espèces envahissantes dans le milieu marin » méditerranéen[1].
+L'UICN l'a placée — avec M. stebbingi — dans sa « liste noire des espèces envahissantes dans le milieu marin » méditerranéen.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crevette_mouchet%C3%A9e</t>
+          <t>Crevette_mouchetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce serait en compétition avec la crevette royale locale (Penaeus kerathurus) dans le golfe de Gabès (Tunisie)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce serait en compétition avec la crevette royale locale (Penaeus kerathurus) dans le golfe de Gabès (Tunisie).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crevette_mouchet%C3%A9e</t>
+          <t>Crevette_mouchetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette crevette figure sur une émission du Bangladesh de 1991 (valeur faciale : 6 t.).
 </t>
